--- a/resource/data/alcohol/14.05.16/10/measurement-4.xlsx
+++ b/resource/data/alcohol/14.05.16/10/measurement-4.xlsx
@@ -61,7 +61,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -83,7 +82,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,15 +163,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,6 +212,9 @@
         <v>0</v>
       </c>
       <c r="M1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -249,6 +250,9 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -284,6 +288,9 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -319,6 +326,9 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -354,6 +364,9 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -389,6 +402,9 @@
         <v>7</v>
       </c>
       <c r="M6" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -424,6 +440,9 @@
         <v>10</v>
       </c>
       <c r="M7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>18</v>
       </c>
     </row>
@@ -459,6 +478,9 @@
         <v>12</v>
       </c>
       <c r="M8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>17</v>
       </c>
     </row>
@@ -490,6 +512,9 @@
         <v>13</v>
       </c>
       <c r="M9" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>17</v>
       </c>
     </row>
@@ -521,6 +546,9 @@
         <v>14</v>
       </c>
       <c r="M10" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N10" s="2" t="n">
         <v>18</v>
       </c>
     </row>
@@ -552,6 +580,9 @@
         <v>13</v>
       </c>
       <c r="M11" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="N11" s="2" t="n">
         <v>19</v>
       </c>
     </row>
@@ -583,6 +614,9 @@
         <v>13</v>
       </c>
       <c r="M12" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -614,6 +648,9 @@
         <v>14</v>
       </c>
       <c r="M13" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -645,6 +682,9 @@
         <v>14</v>
       </c>
       <c r="M14" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="N14" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -676,6 +716,9 @@
         <v>15</v>
       </c>
       <c r="M15" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -707,6 +750,9 @@
         <v>14</v>
       </c>
       <c r="M16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -738,6 +784,9 @@
         <v>14</v>
       </c>
       <c r="M17" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="N17" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -769,6 +818,9 @@
         <v>14</v>
       </c>
       <c r="M18" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -800,6 +852,9 @@
         <v>15</v>
       </c>
       <c r="M19" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -831,6 +886,9 @@
         <v>14</v>
       </c>
       <c r="M20" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N20" s="2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -862,6 +920,9 @@
         <v>14</v>
       </c>
       <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -893,6 +954,9 @@
         <v>15</v>
       </c>
       <c r="M22" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N22" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -924,6 +988,9 @@
         <v>14</v>
       </c>
       <c r="M23" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="N23" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -955,6 +1022,9 @@
         <v>14</v>
       </c>
       <c r="M24" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="N24" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -986,6 +1056,9 @@
         <v>14</v>
       </c>
       <c r="M25" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="N25" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1017,6 +1090,9 @@
         <v>14</v>
       </c>
       <c r="M26" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1048,6 +1124,9 @@
         <v>14</v>
       </c>
       <c r="M27" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N27" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1079,6 +1158,9 @@
         <v>15</v>
       </c>
       <c r="M28" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N28" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1110,6 +1192,9 @@
         <v>14</v>
       </c>
       <c r="M29" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N29" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1141,6 +1226,9 @@
         <v>14</v>
       </c>
       <c r="M30" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N30" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1172,6 +1260,9 @@
         <v>15</v>
       </c>
       <c r="M31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N31" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1203,6 +1294,9 @@
         <v>14</v>
       </c>
       <c r="M32" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N32" s="2" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1234,6 +1328,9 @@
         <v>15</v>
       </c>
       <c r="M33" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N33" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1265,6 +1362,9 @@
         <v>14</v>
       </c>
       <c r="M34" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N34" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1296,6 +1396,9 @@
         <v>15</v>
       </c>
       <c r="M35" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N35" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1327,6 +1430,9 @@
         <v>15</v>
       </c>
       <c r="M36" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N36" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1358,6 +1464,9 @@
         <v>14</v>
       </c>
       <c r="M37" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1389,6 +1498,9 @@
         <v>15</v>
       </c>
       <c r="M38" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N38" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1420,6 +1532,9 @@
         <v>15</v>
       </c>
       <c r="M39" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N39" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1451,6 +1566,9 @@
         <v>14</v>
       </c>
       <c r="M40" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N40" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1482,6 +1600,9 @@
         <v>14</v>
       </c>
       <c r="M41" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N41" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1513,6 +1634,9 @@
         <v>15</v>
       </c>
       <c r="M42" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N42" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1544,6 +1668,9 @@
         <v>15</v>
       </c>
       <c r="M43" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N43" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1575,6 +1702,9 @@
         <v>15</v>
       </c>
       <c r="M44" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N44" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1606,6 +1736,9 @@
         <v>15</v>
       </c>
       <c r="M45" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N45" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1637,6 +1770,9 @@
         <v>15</v>
       </c>
       <c r="M46" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N46" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1668,6 +1804,9 @@
         <v>15</v>
       </c>
       <c r="M47" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N47" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1699,6 +1838,9 @@
         <v>15</v>
       </c>
       <c r="M48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N48" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1730,6 +1872,9 @@
         <v>15</v>
       </c>
       <c r="M49" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N49" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1761,6 +1906,9 @@
         <v>15</v>
       </c>
       <c r="M50" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N50" s="2" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1792,6 +1940,9 @@
         <v>15</v>
       </c>
       <c r="M51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N51" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1823,6 +1974,9 @@
         <v>15</v>
       </c>
       <c r="M52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N52" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1854,6 +2008,9 @@
         <v>15</v>
       </c>
       <c r="M53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N53" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1885,6 +2042,9 @@
         <v>16</v>
       </c>
       <c r="M54" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N54" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1916,6 +2076,9 @@
         <v>15</v>
       </c>
       <c r="M55" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N55" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1947,6 +2110,9 @@
         <v>16</v>
       </c>
       <c r="M56" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N56" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1978,6 +2144,9 @@
         <v>15</v>
       </c>
       <c r="M57" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N57" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2009,6 +2178,9 @@
         <v>16</v>
       </c>
       <c r="M58" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N58" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2040,6 +2212,9 @@
         <v>16</v>
       </c>
       <c r="M59" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N59" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2071,6 +2246,9 @@
         <v>15</v>
       </c>
       <c r="M60" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N60" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2102,6 +2280,9 @@
         <v>16</v>
       </c>
       <c r="M61" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N61" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2133,6 +2314,9 @@
         <v>16</v>
       </c>
       <c r="M62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N62" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2164,6 +2348,9 @@
         <v>15</v>
       </c>
       <c r="M63" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N63" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2195,6 +2382,9 @@
         <v>16</v>
       </c>
       <c r="M64" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N64" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2226,6 +2416,9 @@
         <v>16</v>
       </c>
       <c r="M65" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N65" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2257,6 +2450,9 @@
         <v>16</v>
       </c>
       <c r="M66" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N66" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2288,6 +2484,9 @@
         <v>16</v>
       </c>
       <c r="M67" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N67" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2319,6 +2518,9 @@
         <v>16</v>
       </c>
       <c r="M68" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N68" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2350,6 +2552,9 @@
         <v>15</v>
       </c>
       <c r="M69" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N69" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2381,6 +2586,9 @@
         <v>15</v>
       </c>
       <c r="M70" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N70" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2412,6 +2620,9 @@
         <v>16</v>
       </c>
       <c r="M71" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N71" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2443,6 +2654,9 @@
         <v>16</v>
       </c>
       <c r="M72" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N72" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2474,6 +2688,9 @@
         <v>16</v>
       </c>
       <c r="M73" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N73" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2505,6 +2722,9 @@
         <v>16</v>
       </c>
       <c r="M74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N74" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2536,6 +2756,9 @@
         <v>16</v>
       </c>
       <c r="M75" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N75" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2567,6 +2790,9 @@
         <v>16</v>
       </c>
       <c r="M76" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N76" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2598,6 +2824,9 @@
         <v>16</v>
       </c>
       <c r="M77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N77" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2629,6 +2858,9 @@
         <v>17</v>
       </c>
       <c r="M78" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N78" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2660,6 +2892,9 @@
         <v>16</v>
       </c>
       <c r="M79" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N79" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2691,6 +2926,9 @@
         <v>16</v>
       </c>
       <c r="M80" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N80" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2722,6 +2960,9 @@
         <v>17</v>
       </c>
       <c r="M81" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N81" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2753,6 +2994,9 @@
         <v>16</v>
       </c>
       <c r="M82" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N82" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2784,6 +3028,9 @@
         <v>16</v>
       </c>
       <c r="M83" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N83" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2815,6 +3062,9 @@
         <v>17</v>
       </c>
       <c r="M84" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N84" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2846,6 +3096,9 @@
         <v>16</v>
       </c>
       <c r="M85" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N85" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2877,6 +3130,9 @@
         <v>17</v>
       </c>
       <c r="M86" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N86" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2908,6 +3164,9 @@
         <v>16</v>
       </c>
       <c r="M87" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N87" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2939,6 +3198,9 @@
         <v>17</v>
       </c>
       <c r="M88" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N88" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2970,6 +3232,9 @@
         <v>16</v>
       </c>
       <c r="M89" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N89" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3001,6 +3266,9 @@
         <v>17</v>
       </c>
       <c r="M90" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N90" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3032,6 +3300,9 @@
         <v>17</v>
       </c>
       <c r="M91" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N91" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3063,6 +3334,9 @@
         <v>17</v>
       </c>
       <c r="M92" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N92" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3094,6 +3368,9 @@
         <v>16</v>
       </c>
       <c r="M93" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N93" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3125,6 +3402,9 @@
         <v>17</v>
       </c>
       <c r="M94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N94" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3156,6 +3436,9 @@
         <v>17</v>
       </c>
       <c r="M95" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="N95" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3187,6 +3470,9 @@
         <v>17</v>
       </c>
       <c r="M96" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N96" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3218,6 +3504,9 @@
         <v>17</v>
       </c>
       <c r="M97" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N97" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3249,6 +3538,9 @@
         <v>17</v>
       </c>
       <c r="M98" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N98" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3280,6 +3572,9 @@
         <v>17</v>
       </c>
       <c r="M99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N99" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3311,6 +3606,9 @@
         <v>17</v>
       </c>
       <c r="M100" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N100" s="2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3342,6 +3640,9 @@
         <v>17</v>
       </c>
       <c r="M101" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N101" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3373,6 +3674,9 @@
         <v>17</v>
       </c>
       <c r="M102" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N102" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3404,6 +3708,9 @@
         <v>17</v>
       </c>
       <c r="M103" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N103" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3435,6 +3742,9 @@
         <v>17</v>
       </c>
       <c r="M104" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N104" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3466,6 +3776,9 @@
         <v>17</v>
       </c>
       <c r="M105" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N105" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3497,6 +3810,9 @@
         <v>17</v>
       </c>
       <c r="M106" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N106" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3528,6 +3844,9 @@
         <v>17</v>
       </c>
       <c r="M107" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N107" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3559,6 +3878,9 @@
         <v>17</v>
       </c>
       <c r="M108" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N108" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3590,6 +3912,9 @@
         <v>17</v>
       </c>
       <c r="M109" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N109" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3621,6 +3946,9 @@
         <v>17</v>
       </c>
       <c r="M110" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N110" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3652,6 +3980,9 @@
         <v>18</v>
       </c>
       <c r="M111" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N111" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3683,6 +4014,9 @@
         <v>17</v>
       </c>
       <c r="M112" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N112" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3714,6 +4048,9 @@
         <v>17</v>
       </c>
       <c r="M113" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N113" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3745,6 +4082,9 @@
         <v>18</v>
       </c>
       <c r="M114" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N114" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3776,6 +4116,9 @@
         <v>17</v>
       </c>
       <c r="M115" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N115" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3807,6 +4150,9 @@
         <v>17</v>
       </c>
       <c r="M116" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N116" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3838,6 +4184,9 @@
         <v>18</v>
       </c>
       <c r="M117" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N117" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3869,6 +4218,9 @@
         <v>17</v>
       </c>
       <c r="M118" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N118" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3900,6 +4252,9 @@
         <v>18</v>
       </c>
       <c r="M119" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="N119" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3921,20 +4276,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3949,20 +4305,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
